--- a/src/Topxia/Service/Taxonomy/初中语文北师大版教材.xlsx
+++ b/src/Topxia/Service/Taxonomy/初中语文北师大版教材.xlsx
@@ -1,58 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="初中语文北师大版1上" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="1下" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="2上" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="2下" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="3上" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="3下" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="初中语文北师大版1上" sheetId="1" r:id="rId1"/>
+    <sheet name="1下" sheetId="2" r:id="rId2"/>
+    <sheet name="2上" sheetId="3" r:id="rId3"/>
+    <sheet name="2下" sheetId="4" r:id="rId4"/>
+    <sheet name="3上" sheetId="5" r:id="rId5"/>
+    <sheet name="3下" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="313">
   <si>
+    <t>first</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>es_cz_yw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>es_cz_yw_bsdb</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">表达</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">交流 综合实践</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达·交流 综合实践</t>
   </si>
   <si>
     <t>做个智勇双全的少年</t>
@@ -100,64 +81,10 @@
     <t>山行</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">越调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">天净沙 秋思</t>
-    </r>
-  </si>
-  <si>
     <t>秋词</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">采桑子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">重阳</t>
-    </r>
+    <t>采桑子·重阳</t>
   </si>
   <si>
     <t>登高</t>
@@ -256,7 +183,12 @@
     <t>智惩恶少</t>
   </si>
   <si>
+    <t>[越调]天净沙 秋思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>感悟生活</t>
@@ -313,140 +245,101 @@
     <t>玉楼春</t>
   </si>
   <si>
+    <t>春夜喜雨</t>
+  </si>
+  <si>
+    <t>早春呈水部张十八员外</t>
+  </si>
+  <si>
+    <t>钱塘湖春行</t>
+  </si>
+  <si>
+    <t>初春</t>
+  </si>
+  <si>
+    <t>唐宋大诗人诗中的物候</t>
+  </si>
+  <si>
+    <t>花儿为什么这样红</t>
+  </si>
+  <si>
+    <t>最后一课</t>
+  </si>
+  <si>
+    <t>过零丁洋</t>
+  </si>
+  <si>
+    <t>第一堂课</t>
+  </si>
+  <si>
+    <t>梅岭三章</t>
+  </si>
+  <si>
+    <t>示儿</t>
+  </si>
+  <si>
+    <t>谭嗣同之死</t>
+  </si>
+  <si>
+    <t>勇气</t>
+  </si>
+  <si>
+    <t>诗三首（自嘲、有的人、啊，船长，我的船长）</t>
+  </si>
+  <si>
+    <t>邓稼先</t>
+  </si>
+  <si>
+    <t>居里夫人和一克镭</t>
+  </si>
+  <si>
+    <t>爱因斯坦与原子弹</t>
+  </si>
+  <si>
+    <t>回忆鲁迅先生</t>
+  </si>
+  <si>
+    <t>父亲的退休生活</t>
+  </si>
+  <si>
+    <t>毛泽东词二首（卜算子·咏梅、沁园春·雪）</t>
+  </si>
+  <si>
+    <t>黄河化险</t>
+  </si>
+  <si>
+    <t>闲话章太炎</t>
+  </si>
+  <si>
+    <t>论逆境</t>
+  </si>
+  <si>
+    <t>海燕</t>
+  </si>
+  <si>
+    <t>波浪</t>
+  </si>
+  <si>
+    <t>《山海经》两篇（精卫填海、夸父逐日）</t>
+  </si>
+  <si>
+    <t>愚公移山</t>
+  </si>
+  <si>
+    <t>生于忧患 死于安乐</t>
+  </si>
+  <si>
+    <t>老翁捕虎</t>
+  </si>
+  <si>
+    <t>只有五条横街口的距离</t>
+  </si>
+  <si>
+    <t>成功的秘诀</t>
+  </si>
+  <si>
     <t>鹧鸪天 代人赋</t>
-  </si>
-  <si>
-    <t>春夜喜雨</t>
-  </si>
-  <si>
-    <t>早春呈水部张十八员外</t>
-  </si>
-  <si>
-    <t>钱塘湖春行</t>
-  </si>
-  <si>
-    <t>初春</t>
-  </si>
-  <si>
-    <t>唐宋大诗人诗中的物候</t>
-  </si>
-  <si>
-    <t>花儿为什么这样红</t>
-  </si>
-  <si>
-    <t>最后一课</t>
-  </si>
-  <si>
-    <t>过零丁洋</t>
-  </si>
-  <si>
-    <t>第一堂课</t>
-  </si>
-  <si>
-    <t>梅岭三章</t>
-  </si>
-  <si>
-    <t>示儿</t>
-  </si>
-  <si>
-    <t>谭嗣同之死</t>
-  </si>
-  <si>
-    <t>勇气</t>
-  </si>
-  <si>
-    <t>诗三首（自嘲、有的人、啊，船长，我的船长）</t>
-  </si>
-  <si>
-    <t>邓稼先</t>
-  </si>
-  <si>
-    <t>居里夫人和一克镭</t>
-  </si>
-  <si>
-    <t>爱因斯坦与原子弹</t>
-  </si>
-  <si>
-    <t>回忆鲁迅先生</t>
-  </si>
-  <si>
-    <t>父亲的退休生活</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">毛泽东词二首（卜算子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">咏梅、沁园春</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">雪）</t>
-    </r>
-  </si>
-  <si>
-    <t>黄河化险</t>
-  </si>
-  <si>
-    <t>闲话章太炎</t>
-  </si>
-  <si>
-    <t>论逆境</t>
-  </si>
-  <si>
-    <t>海燕</t>
-  </si>
-  <si>
-    <t>波浪</t>
-  </si>
-  <si>
-    <t>《山海经》两篇（精卫填海、夸父逐日）</t>
-  </si>
-  <si>
-    <t>愚公移山</t>
-  </si>
-  <si>
-    <t>生于忧患 死于安乐</t>
-  </si>
-  <si>
-    <t>老翁捕虎</t>
-  </si>
-  <si>
-    <t>只有五条横街口的距离</t>
-  </si>
-  <si>
-    <t>成功的秘诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>恰当之美</t>
@@ -605,28 +498,7 @@
     <t>声声慢</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">浪淘沙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">北戴河</t>
-    </r>
+    <t>浪淘沙·北戴河</t>
   </si>
   <si>
     <t>理趣</t>
@@ -719,28 +591,7 @@
     <t>归园田居</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">三峡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">余秋雨</t>
-    </r>
+    <t>三峡/余秋雨</t>
   </si>
   <si>
     <t>过故人庄</t>
@@ -767,28 +618,7 @@
     <t>题李凝幽居</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">西江月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">遣兴</t>
-    </r>
+    <t>西江月·遣兴</t>
   </si>
   <si>
     <t>中国山水游记的感性</t>
@@ -815,28 +645,7 @@
     <t>清塘荷韵</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">水龙吟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">次韵章质夫杨花词</t>
-    </r>
+    <t>水龙吟·次韵章质夫杨花词</t>
   </si>
   <si>
     <t>水龙吟</t>
@@ -863,148 +672,22 @@
     <t>晏子使楚</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">对话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">评论</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">机智</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">幽默</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">结尾</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">颖悟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">通感</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">表现</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">想象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">虚构</t>
-    </r>
+    <t>对话·评论</t>
+  </si>
+  <si>
+    <t>机智·幽默</t>
+  </si>
+  <si>
+    <t>开头·结尾</t>
+  </si>
+  <si>
+    <t>体验·颖悟</t>
+  </si>
+  <si>
+    <t>通感·表现</t>
+  </si>
+  <si>
+    <t>想象·虚构</t>
   </si>
   <si>
     <t>诗两首（假如生活欺骗了你、假如生活重新开头）</t>
@@ -1013,47 +696,7 @@
     <t>项链</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">项链</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">伊娃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">卡西诺比什</t>
-    </r>
+    <t>项链/伊娃·卡西诺比什</t>
   </si>
   <si>
     <t>珠宝</t>
@@ -1248,28 +891,7 @@
     <t>记承天寺夜游</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">水调歌头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中秋</t>
-    </r>
+    <t>水调歌头·中秋</t>
   </si>
   <si>
     <t>夜上受降城闻笛</t>
@@ -1347,45 +969,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1397,7 +1002,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1405,2044 +1010,2245 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7840375586854"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3192488262911"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.26291079812207"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.70422535211268"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.056338028169"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.89671361502347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.08450704225352"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5727699530516"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5868544600939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.89671361502347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.08450704225352"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6244131455399"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.0985915492958"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.89671361502347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.70422535211268"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.89671361502347"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>312</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>